--- a/classfiers/sota/corelation/corelation-metrics/correlations-greedy.xlsx
+++ b/classfiers/sota/corelation/corelation-metrics/correlations-greedy.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1440950978523688</v>
+        <v>-0.1599328420420756</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1092818915546748</v>
+        <v>-0.09946141724248163</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1098319125104927</v>
+        <v>-0.09991168210132302</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09396338090746637</v>
+        <v>-0.05498242441677689</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.08801750302799585</v>
+        <v>-0.08327996756284342</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09262856698998864</v>
+        <v>-0.08905439024275709</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05188876130757205</v>
+        <v>-0.0578366517144679</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03103889805596141</v>
+        <v>-0.04810252667799771</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.04014511771248881</v>
+        <v>-0.03235422587664989</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1303079132932158</v>
+        <v>-0.1339389516201336</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04936811188126516</v>
+        <v>0.03651153120411012</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003512308045023927</v>
+        <v>-0.01541147532026842</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.07962077219602905</v>
+        <v>-0.0940003674443893</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0728316109841826</v>
+        <v>-0.04273242543077801</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.07257949394018211</v>
+        <v>-0.02339177627746256</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1180290174250158</v>
+        <v>0.1362620566665088</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.135981495532076</v>
+        <v>0.155395644478712</v>
       </c>
     </row>
   </sheetData>
